--- a/data_stuff/results.xlsx
+++ b/data_stuff/results.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34960" yWindow="180" windowWidth="35100" windowHeight="20280" tabRatio="500"/>
+    <workbookView xWindow="33860" yWindow="680" windowWidth="34040" windowHeight="19240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_120osd_memstore_1mon_2qd_max_lat" localSheetId="0">Sheet1!$A$2:$A$1026</definedName>
@@ -23,24 +24,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>First name Last name</author>
+  </authors>
+  <commentList>
+    <comment ref="H30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comparing lua null to native null in relative terms is kinda pointless. For this we can mention the total overhead in the comments (e.g. 300 us). Mention percentages (e.g. 30%) in comments, use lua_write vs native_write in graphs. Use HDD vs SSD.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="120osd_memstore_1mon_2qd_max_lat.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:nwatkins:120osd_memstore_1mon_2qd_max_lat.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:nwatkins:120osd_memstore_1mon_2qd_max_lat.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="2" name="3osd_hdd_1mon_2qd_max_lat.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:nwatkins:3osd_hdd_1mon_2qd_max_lat.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:nwatkins:3osd_hdd_1mon_2qd_max_lat.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="3" name="x.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:nwatkins:x.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:nwatkins:x.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -50,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>120 osd, ram</t>
   </si>
@@ -60,18 +85,103 @@
   <si>
     <t>3mon proposal cost</t>
   </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>hdd_lua_null</t>
+  </si>
+  <si>
+    <t>hdd_native_null</t>
+  </si>
+  <si>
+    <t>hdd_lua_write</t>
+  </si>
+  <si>
+    <t>hdd_native_write</t>
+  </si>
+  <si>
+    <t>ssd_lua_null</t>
+  </si>
+  <si>
+    <t>ssd_native_null</t>
+  </si>
+  <si>
+    <t>ssd_lua_write</t>
+  </si>
+  <si>
+    <t>ssd_native_write</t>
+  </si>
+  <si>
+    <t>mem_lua_null</t>
+  </si>
+  <si>
+    <t>mem_native_null</t>
+  </si>
+  <si>
+    <t>mem_lua_write</t>
+  </si>
+  <si>
+    <t>mem_native_write</t>
+  </si>
+  <si>
+    <t>hdd_null_oh</t>
+  </si>
+  <si>
+    <t>hdd_write_oh</t>
+  </si>
+  <si>
+    <t>ssd_null_oh</t>
+  </si>
+  <si>
+    <t>ssd_write_oh</t>
+  </si>
+  <si>
+    <t>mem_null_oh</t>
+  </si>
+  <si>
+    <t>mem_write_oh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,13 +201,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="27">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12869,11 +13031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145207272"/>
-        <c:axId val="-2145210440"/>
+        <c:axId val="2123271000"/>
+        <c:axId val="2123997496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145207272"/>
+        <c:axId val="2123271000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260.0"/>
@@ -12904,12 +13066,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145210440"/>
+        <c:crossAx val="2123997496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145210440"/>
+        <c:axId val="2123997496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -12940,7 +13102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145207272"/>
+        <c:crossAx val="2123271000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12963,6 +13125,1526 @@
           <a:schemeClr val="bg1"/>
         </a:solidFill>
       </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hdd_lua_null</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.677702117777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.670318068733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.683395954354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hdd_native_null</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.30964511346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.306433636093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313386987297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hdd_lua_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.45761175971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66438591586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7106377803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hdd_native_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.12924437273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.27850802104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.32373550303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hdd_null_oh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.188641410175348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.187482018225846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.18067750753907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hdd_write_oh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.290785054953302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.301818908031651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.292280653034076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2126008344"/>
+        <c:axId val="-2124098408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126008344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124098408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124098408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126008344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_lua_null</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.679916444754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.681417658526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.675092922275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_native_null</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.294053048474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.296234850907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.294669504085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_lua_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.46187079357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64547522482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.70908118552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_native_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.12426363067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25027593811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3008710931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_null_oh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.312223757864282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.300261621614279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.29101726821471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_write_oh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.30029181207152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.316089652422976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313797496604547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2121911944"/>
+        <c:axId val="-2121910536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2121911944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121910536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121910536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121911944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_lua_null</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.644980940418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.634632027992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67803638312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_native_null</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.243293795231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.249370219322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.262288293608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_lua_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$2:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.816582967155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.50795927011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55738147528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_native_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$2:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55310649112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14805188077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19211161145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_null_oh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.651037359196153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.544939125920765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.585080614132751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_write_oh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$2:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.476357591648363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.313494011349565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.306405759596378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2123080904"/>
+        <c:axId val="-2124568408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2123080904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124568408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124568408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123080904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lua vs Native Operation Overhead</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_lua_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.46187079357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64547522482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.70908118552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd_native_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.12426363067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25027593811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3008710931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_lua_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$2:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.816582967155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.50795927011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55738147528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mem_native_write</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1x</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$2:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55310649112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14805188077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19211161145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2122072760"/>
+        <c:axId val="-2119768232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2122072760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Replication Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119768232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119768232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Latency (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122072760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -13011,16 +14693,141 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="x" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3osd_hdd_1mon_2qd_max_lat" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="120osd_memstore_1mon_2qd_max_lat" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="120osd_memstore_1mon_2qd_max_lat" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3osd_hdd_1mon_2qd_max_lat" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13347,7 +15154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -36989,4 +38796,291 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="13" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.67770211777699996</v>
+      </c>
+      <c r="C2">
+        <v>0.30964511346000001</v>
+      </c>
+      <c r="D2">
+        <f>(B2-C2)/C2</f>
+        <v>1.1886414101753477</v>
+      </c>
+      <c r="E2">
+        <v>1.45761175971</v>
+      </c>
+      <c r="F2">
+        <v>1.1292443727299999</v>
+      </c>
+      <c r="G2">
+        <f>(E2-F2)/F2</f>
+        <v>0.29078505495330204</v>
+      </c>
+      <c r="H2">
+        <v>0.67991644475400004</v>
+      </c>
+      <c r="I2">
+        <v>0.29405304847399999</v>
+      </c>
+      <c r="J2">
+        <f>(H2-I2)/I2</f>
+        <v>1.3122237578642817</v>
+      </c>
+      <c r="K2">
+        <v>1.4618707935699999</v>
+      </c>
+      <c r="L2">
+        <v>1.12426363067</v>
+      </c>
+      <c r="M2">
+        <f>(K2-L2)/L2</f>
+        <v>0.30029181207151956</v>
+      </c>
+      <c r="N2">
+        <v>0.64498094041800003</v>
+      </c>
+      <c r="O2">
+        <v>0.243293795231</v>
+      </c>
+      <c r="P2">
+        <f>(N2-O2)/O2</f>
+        <v>1.6510373591961536</v>
+      </c>
+      <c r="Q2">
+        <v>0.81658296715500001</v>
+      </c>
+      <c r="R2">
+        <v>0.55310649111999999</v>
+      </c>
+      <c r="S2">
+        <f>(Q2-R2)/R2</f>
+        <v>0.47635759164836328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.67031806873300004</v>
+      </c>
+      <c r="C3">
+        <v>0.30643363609300001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">(B3-C3)/C3</f>
+        <v>1.1874820182258459</v>
+      </c>
+      <c r="E3">
+        <v>1.6643859158600001</v>
+      </c>
+      <c r="F3">
+        <v>1.2785080210399999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="1">(E3-F3)/F3</f>
+        <v>0.30181890803165118</v>
+      </c>
+      <c r="H3">
+        <v>0.681417658526</v>
+      </c>
+      <c r="I3">
+        <v>0.29623485090700002</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="2">(H3-I3)/I3</f>
+        <v>1.3002616216142788</v>
+      </c>
+      <c r="K3">
+        <v>1.64547522482</v>
+      </c>
+      <c r="L3">
+        <v>1.2502759381099999</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M4" si="3">(K3-L3)/L3</f>
+        <v>0.31608965242297593</v>
+      </c>
+      <c r="N3">
+        <v>0.63463202799200003</v>
+      </c>
+      <c r="O3">
+        <v>0.24937021932199999</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="4">(N3-O3)/O3</f>
+        <v>1.5449391259207648</v>
+      </c>
+      <c r="Q3">
+        <v>1.50795927011</v>
+      </c>
+      <c r="R3">
+        <v>1.14805188077</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="5">(Q3-R3)/R3</f>
+        <v>0.31349401134956517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.68339595435400002</v>
+      </c>
+      <c r="C4">
+        <v>0.31338698729699999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.1806775075390696</v>
+      </c>
+      <c r="E4">
+        <v>1.7106377802999999</v>
+      </c>
+      <c r="F4">
+        <v>1.32373550303</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.29228065303407635</v>
+      </c>
+      <c r="H4">
+        <v>0.67509292227499995</v>
+      </c>
+      <c r="I4">
+        <v>0.29466950408499998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1.2910172682147099</v>
+      </c>
+      <c r="K4">
+        <v>1.7090811855200001</v>
+      </c>
+      <c r="L4">
+        <v>1.3008710931</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.31379749660454659</v>
+      </c>
+      <c r="N4">
+        <v>0.67803638312000003</v>
+      </c>
+      <c r="O4">
+        <v>0.26228829360799999</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>1.5850806141327514</v>
+      </c>
+      <c r="Q4">
+        <v>1.5573814752799999</v>
+      </c>
+      <c r="R4">
+        <v>1.1921116114500001</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="5"/>
+        <v>0.30640575959637828</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>